--- a/testing_results/results_syn10x10.xlsx
+++ b/testing_results/results_syn10x10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,170 +443,49 @@
       <c r="C1" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0622618857125815</v>
+        <v>0.04565034163302163</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06481064512661516</v>
+        <v>0.06476186543264517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06111055269029725</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.05790859488377433</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.06187096585316246</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.06056652269401607</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.06501879368115576</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.06657811995688942</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.06214375639366152</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.07414679099514281</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.06805952869322825</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.07321673575282489</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0651165960701351</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.04131192202196405</v>
+        <v>0.03534266444022421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.05350715584649787</v>
+        <v>0.03678296524282141</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05645944478269591</v>
+        <v>0.05424544718350725</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05237394894972128</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04969283371191726</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.05189345030868714</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.05234024076997476</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.05726540275936903</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.05880710245684196</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.05475583130849061</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.06590226774706461</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.05832907456400412</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.06321666257392089</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.05486468582947055</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0.03546494086037617</v>
+        <v>0.03144150707424116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.04614097130097045</v>
+        <v>0.02850464943740932</v>
       </c>
       <c r="B4" t="n">
-        <v>0.04765603104239227</v>
+        <v>0.04642263377455254</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04333926292078444</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.04245189894836623</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.04403363086661279</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.04473440563130002</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.04806975622801071</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.0508430067732448</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.04916330057012211</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.0596668058406062</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.05291428007415463</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.05426489122075953</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.04770642282974222</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.03305335165909961</v>
+        <v>0.03128988305182065</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.02414180024154462</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.03778784576865692</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.02359562415899536</v>
       </c>
     </row>
   </sheetData>
